--- a/Project_172/TestData/InputData.xlsx
+++ b/Project_172/TestData/InputData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="7950" windowHeight="3495"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="7950" windowHeight="3495" tabRatio="679" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="199">
   <si>
     <t>ApplicationURl</t>
   </si>
@@ -607,6 +608,15 @@
   </si>
   <si>
     <t>HDFC-58760000</t>
+  </si>
+  <si>
+    <t>UserData</t>
+  </si>
+  <si>
+    <t>Darshan</t>
+  </si>
+  <si>
+    <t>Rajesh</t>
   </si>
 </sst>
 </file>
@@ -689,7 +699,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
@@ -713,6 +723,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1010,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1175,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2202,4 +2215,47 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="15">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="15">
+        <v>8787897</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Project_172/TestData/InputData.xlsx
+++ b/Project_172/TestData/InputData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="7950" windowHeight="3495" tabRatio="679" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="7950" windowHeight="3495" tabRatio="679" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="201">
   <si>
     <t>ApplicationURl</t>
   </si>
@@ -617,6 +617,12 @@
   </si>
   <si>
     <t>Rajesh</t>
+  </si>
+  <si>
+    <t>Email_val_Using_Invalid_mobile</t>
+  </si>
+  <si>
+    <t>98djfkdkf</t>
   </si>
 </sst>
 </file>
@@ -1024,7 +1030,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1450,8 +1456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1538,7 +1544,7 @@
         <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
         <v>125</v>
@@ -1636,7 +1642,7 @@
         <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
         <v>132</v>
@@ -1720,7 +1726,7 @@
         <v>104</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D20" t="s">
         <v>98</v>
@@ -1762,7 +1768,7 @@
         <v>110</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
         <v>98</v>
@@ -1775,19 +1781,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
     <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
     <col min="6" max="6" width="42.7109375" customWidth="1"/>
     <col min="7" max="7" width="25.42578125" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
@@ -1907,7 +1913,7 @@
         <v>124</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s">
         <v>125</v>
@@ -1933,7 +1939,7 @@
         <v>124</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s">
         <v>125</v>
@@ -1957,7 +1963,7 @@
         <v>137</v>
       </c>
       <c r="G9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s">
         <v>125</v>
@@ -2009,7 +2015,7 @@
         <v>141</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s">
         <v>125</v>
@@ -2035,7 +2041,7 @@
         <v>136</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s">
         <v>125</v>
@@ -2061,9 +2067,35 @@
         <v>136</v>
       </c>
       <c r="G13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30">
+      <c r="A14" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" t="s">
         <v>77</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H14" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2221,7 +2253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>

--- a/Project_172/TestData/InputData.xlsx
+++ b/Project_172/TestData/InputData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="7950" windowHeight="3495" tabRatio="679" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="7950" windowHeight="3495" tabRatio="679" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="206">
   <si>
     <t>ApplicationURl</t>
   </si>
@@ -610,19 +610,34 @@
     <t>HDFC-58760000</t>
   </si>
   <si>
-    <t>UserData</t>
-  </si>
-  <si>
-    <t>Darshan</t>
-  </si>
-  <si>
-    <t>Rajesh</t>
-  </si>
-  <si>
     <t>Email_val_Using_Invalid_mobile</t>
   </si>
   <si>
     <t>98djfkdkf</t>
+  </si>
+  <si>
+    <t>Ajay</t>
+  </si>
+  <si>
+    <t>Ajay$123</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Sam@876</t>
+  </si>
+  <si>
+    <t>Sam@877</t>
+  </si>
+  <si>
+    <t>Sam@878</t>
+  </si>
+  <si>
+    <t>Sam1</t>
+  </si>
+  <si>
+    <t>Sam2</t>
   </si>
 </sst>
 </file>
@@ -705,7 +720,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
@@ -729,9 +744,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1783,7 +1795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="E7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -2075,7 +2087,7 @@
     </row>
     <row r="14" spans="1:9" ht="30">
       <c r="A14" s="10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B14" t="s">
         <v>127</v>
@@ -2084,7 +2096,7 @@
         <v>127</v>
       </c>
       <c r="D14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E14" t="s">
         <v>127</v>
@@ -2251,43 +2263,56 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="15" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="15">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="15" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="15">
-        <v>8787897</v>
+      <c r="B1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3" display="Sam@876"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>